--- a/products moha.xlsx
+++ b/products moha.xlsx
@@ -1120,7 +1120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,8 +1235,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,12 +1285,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
       </patternFill>
     </fill>
@@ -1282,6 +1292,18 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1362,11 +1384,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1405,9 +1427,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1426,10 +1445,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4"/>
@@ -1443,42 +1462,83 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Accent5" xfId="3" builtinId="46"/>
@@ -1789,7 +1849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1799,16 +1859,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="94.140625" customWidth="1"/>
@@ -1817,7 +1878,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1839,10 +1900,10 @@
       <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1850,19 +1911,19 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="41">
         <v>31010418</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="37" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="8">
@@ -1874,8 +1935,8 @@
       <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="23" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1883,15 +1944,15 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="11">
+      <c r="B5" s="38"/>
+      <c r="C5" s="50">
         <v>31018715</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="37" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="8">
@@ -1903,8 +1964,8 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1912,15 +1973,15 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="5">
+      <c r="B6" s="38"/>
+      <c r="C6" s="41">
         <v>31010908</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="37" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="8">
@@ -1932,8 +1993,8 @@
       <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="23" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1941,15 +2002,15 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="5">
+      <c r="B7" s="38"/>
+      <c r="C7" s="41">
         <v>31010467</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="37" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="8">
@@ -1961,8 +2022,8 @@
       <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="23" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1970,15 +2031,15 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="5">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41">
         <v>31010550</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="8">
@@ -1990,7 +2051,7 @@
       <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="23"/>
       <c r="K8" t="s">
         <v>13</v>
       </c>
@@ -1999,15 +2060,15 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="5">
+      <c r="B9" s="38"/>
+      <c r="C9" s="41">
         <v>31011004</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="37" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="8">
@@ -2019,7 +2080,7 @@
       <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="23"/>
       <c r="K9" t="s">
         <v>13</v>
       </c>
@@ -2028,15 +2089,15 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="5">
+      <c r="B10" s="38"/>
+      <c r="C10" s="41">
         <v>31010524</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="37" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="8">
@@ -2048,7 +2109,7 @@
       <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="23"/>
       <c r="K10" t="s">
         <v>13</v>
       </c>
@@ -2057,15 +2118,15 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="5">
+      <c r="B11" s="38"/>
+      <c r="C11" s="41">
         <v>31010977</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="37" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="8">
@@ -2077,7 +2138,7 @@
       <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="23"/>
       <c r="K11" t="s">
         <v>13</v>
       </c>
@@ -2086,15 +2147,15 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="5">
+      <c r="B12" s="38"/>
+      <c r="C12" s="41">
         <v>31010417</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="37" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="8">
@@ -2106,7 +2167,7 @@
       <c r="I12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="23"/>
       <c r="K12" t="s">
         <v>13</v>
       </c>
@@ -2115,15 +2176,15 @@
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="12">
+      <c r="B13" s="38"/>
+      <c r="C13" s="34">
         <v>31010970</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="37" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="8">
@@ -2135,7 +2196,7 @@
       <c r="I13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="23"/>
       <c r="K13" t="s">
         <v>13</v>
       </c>
@@ -2144,15 +2205,15 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="5">
+      <c r="B14" s="38"/>
+      <c r="C14" s="41">
         <v>31011149</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="37" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="8">
@@ -2164,7 +2225,7 @@
       <c r="I14" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="23"/>
       <c r="K14" t="s">
         <v>13</v>
       </c>
@@ -2173,15 +2234,15 @@
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="5">
+      <c r="B15" s="38"/>
+      <c r="C15" s="41">
         <v>31011180</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="37" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="8">
@@ -2193,7 +2254,7 @@
       <c r="I15" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="23"/>
       <c r="K15" t="s">
         <v>13</v>
       </c>
@@ -2202,15 +2263,15 @@
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="5">
+      <c r="B16" s="38"/>
+      <c r="C16" s="41">
         <v>31011148</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="37" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="8">
@@ -2230,19 +2291,19 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="41">
         <v>31102317</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="37" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="8">
@@ -2265,15 +2326,15 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="5">
+      <c r="B18" s="38"/>
+      <c r="C18" s="41">
         <v>31102347</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="37" t="s">
         <v>45</v>
       </c>
       <c r="G18" s="8">
@@ -2296,15 +2357,15 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="5">
+      <c r="B19" s="43"/>
+      <c r="C19" s="41">
         <v>31102238</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="49"/>
+      <c r="E19" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="37" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="8">
@@ -2324,19 +2385,19 @@
       <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="41">
         <v>32002230</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="37" t="s">
         <v>54</v>
       </c>
       <c r="G20" s="8">
@@ -2356,15 +2417,15 @@
       <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="5">
+      <c r="B21" s="38"/>
+      <c r="C21" s="41">
         <v>32001310</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="44"/>
+      <c r="E21" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="37" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="8">
@@ -2384,15 +2445,15 @@
       <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="5">
+      <c r="B22" s="38"/>
+      <c r="C22" s="41">
         <v>32002155</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="44"/>
+      <c r="E22" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="37" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="8">
@@ -2412,15 +2473,15 @@
       <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="5">
+      <c r="B23" s="38"/>
+      <c r="C23" s="41">
         <v>32002154</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="44"/>
+      <c r="E23" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G23" s="8">
@@ -2440,15 +2501,15 @@
       <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="5">
+      <c r="B24" s="38"/>
+      <c r="C24" s="41">
         <v>32002152</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="44"/>
+      <c r="E24" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="37" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="8">
@@ -2468,15 +2529,15 @@
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="13">
+      <c r="B25" s="43"/>
+      <c r="C25" s="51">
         <v>32900721</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="37" t="s">
         <v>69</v>
       </c>
       <c r="G25" s="8">
@@ -2490,19 +2551,19 @@
       <c r="A26" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="34">
         <v>33002151</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="37" t="s">
         <v>73</v>
       </c>
       <c r="G26" s="8">
@@ -2514,7 +2575,7 @@
       <c r="I26" t="s">
         <v>72</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="26" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2522,15 +2583,15 @@
       <c r="A27" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="12">
+      <c r="B27" s="38"/>
+      <c r="C27" s="34">
         <v>33002150</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="37" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="8">
@@ -2542,7 +2603,7 @@
       <c r="I27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="26" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2550,15 +2611,15 @@
       <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="12">
+      <c r="B28" s="38"/>
+      <c r="C28" s="34">
         <v>33002152</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="39"/>
+      <c r="E28" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="37" t="s">
         <v>79</v>
       </c>
       <c r="G28" s="8">
@@ -2570,7 +2631,7 @@
       <c r="I28" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="26" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2578,15 +2639,15 @@
       <c r="A29" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="12">
+      <c r="B29" s="38"/>
+      <c r="C29" s="34">
         <v>33002153</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="39"/>
+      <c r="E29" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="37" t="s">
         <v>82</v>
       </c>
       <c r="G29" s="8">
@@ -2598,7 +2659,7 @@
       <c r="I29" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="26" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2606,15 +2667,15 @@
       <c r="A30" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="12">
+      <c r="B30" s="38"/>
+      <c r="C30" s="34">
         <v>33002154</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="40"/>
+      <c r="E30" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="37" t="s">
         <v>85</v>
       </c>
       <c r="G30" s="8">
@@ -2626,7 +2687,7 @@
       <c r="I30" t="s">
         <v>84</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="26" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2634,17 +2695,17 @@
       <c r="A31" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="5">
+      <c r="B31" s="38"/>
+      <c r="C31" s="41">
         <v>33400056</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="37" t="s">
         <v>89</v>
       </c>
       <c r="G31" s="8">
@@ -2656,7 +2717,7 @@
       <c r="I31" t="s">
         <v>88</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="26" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2664,15 +2725,15 @@
       <c r="A32" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="5">
+      <c r="B32" s="43"/>
+      <c r="C32" s="41">
         <v>33400058</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="37" t="s">
         <v>92</v>
       </c>
       <c r="G32" s="8">
@@ -2684,7 +2745,7 @@
       <c r="I32" t="s">
         <v>91</v>
       </c>
-      <c r="J32" s="27" t="s">
+      <c r="J32" s="26" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2692,27 +2753,27 @@
       <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="32" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="25">
         <v>4599</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="24">
         <v>3599</v>
       </c>
       <c r="I33" t="s">
         <v>96</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="26" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2720,25 +2781,25 @@
       <c r="A34" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="14" t="s">
+      <c r="B34" s="45"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="25">
         <v>4599</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="24">
         <v>3599</v>
       </c>
       <c r="I34" t="s">
         <v>99</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="26" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2746,25 +2807,25 @@
       <c r="A35" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="14" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="25">
         <v>4599</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="24">
         <v>3599</v>
       </c>
       <c r="I35" t="s">
         <v>102</v>
       </c>
-      <c r="J35" s="27" t="s">
+      <c r="J35" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2772,17 +2833,17 @@
       <c r="A36" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="41">
         <v>33703242</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="44"/>
+      <c r="E36" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="37" t="s">
         <v>97</v>
       </c>
       <c r="G36" s="8">
@@ -2794,7 +2855,7 @@
       <c r="I36" t="s">
         <v>96</v>
       </c>
-      <c r="J36" s="27" t="s">
+      <c r="J36" s="26" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2802,15 +2863,15 @@
       <c r="A37" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="5">
+      <c r="B37" s="47"/>
+      <c r="C37" s="41">
         <v>33702127</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="6" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="37" t="s">
         <v>107</v>
       </c>
       <c r="G37" s="8">
@@ -2822,7 +2883,7 @@
       <c r="I37" t="s">
         <v>106</v>
       </c>
-      <c r="J37" s="27" t="s">
+      <c r="J37" s="26" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2830,15 +2891,15 @@
       <c r="A38" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="5">
+      <c r="B38" s="47"/>
+      <c r="C38" s="41">
         <v>33702096</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="44"/>
+      <c r="E38" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="37" t="s">
         <v>110</v>
       </c>
       <c r="G38" s="8">
@@ -2850,7 +2911,7 @@
       <c r="I38" t="s">
         <v>109</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="26" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2858,15 +2919,15 @@
       <c r="A39" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="5">
+      <c r="B39" s="47"/>
+      <c r="C39" s="41">
         <v>33702982</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="37" t="s">
         <v>113</v>
       </c>
       <c r="G39" s="8">
@@ -2878,7 +2939,7 @@
       <c r="I39" t="s">
         <v>112</v>
       </c>
-      <c r="J39" s="27" t="s">
+      <c r="J39" s="26" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2886,15 +2947,15 @@
       <c r="A40" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="5">
+      <c r="B40" s="47"/>
+      <c r="C40" s="41">
         <v>33702243</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="44"/>
+      <c r="E40" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="53" t="s">
         <v>116</v>
       </c>
       <c r="G40" s="8">
@@ -2904,7 +2965,7 @@
       <c r="I40" t="s">
         <v>115</v>
       </c>
-      <c r="J40" s="27" t="s">
+      <c r="J40" s="26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2912,15 +2973,15 @@
       <c r="A41" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="5">
+      <c r="B41" s="47"/>
+      <c r="C41" s="41">
         <v>33702112</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="44"/>
+      <c r="E41" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="37" t="s">
         <v>119</v>
       </c>
       <c r="G41" s="8">
@@ -2932,7 +2993,7 @@
       <c r="I41" t="s">
         <v>118</v>
       </c>
-      <c r="J41" s="27" t="s">
+      <c r="J41" s="26" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2940,15 +3001,15 @@
       <c r="A42" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="5">
+      <c r="B42" s="47"/>
+      <c r="C42" s="41">
         <v>33702926</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="6" t="s">
+      <c r="D42" s="44"/>
+      <c r="E42" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="37" t="s">
         <v>119</v>
       </c>
       <c r="G42" s="8">
@@ -2960,7 +3021,7 @@
       <c r="I42" t="s">
         <v>121</v>
       </c>
-      <c r="J42" s="27" t="s">
+      <c r="J42" s="26" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2968,15 +3029,15 @@
       <c r="A43" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="5">
+      <c r="B43" s="47"/>
+      <c r="C43" s="41">
         <v>33702984</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="44"/>
+      <c r="E43" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="37" t="s">
         <v>124</v>
       </c>
       <c r="G43" s="8">
@@ -2988,7 +3049,7 @@
       <c r="I43" t="s">
         <v>123</v>
       </c>
-      <c r="J43" s="27" t="s">
+      <c r="J43" s="26" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2996,15 +3057,15 @@
       <c r="A44" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="5">
+      <c r="B44" s="47"/>
+      <c r="C44" s="41">
         <v>33703069</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="44"/>
+      <c r="E44" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="37" t="s">
         <v>124</v>
       </c>
       <c r="G44" s="8">
@@ -3016,7 +3077,7 @@
       <c r="I44" t="s">
         <v>126</v>
       </c>
-      <c r="J44" s="27" t="s">
+      <c r="J44" s="26" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3024,15 +3085,15 @@
       <c r="A45" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="5">
+      <c r="B45" s="48"/>
+      <c r="C45" s="41">
         <v>33703063</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="6" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="37" t="s">
         <v>124</v>
       </c>
       <c r="G45" s="8">
@@ -3044,7 +3105,7 @@
       <c r="I45" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="27" t="s">
+      <c r="J45" s="26" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3052,13 +3113,13 @@
       <c r="A46" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="30" t="s">
         <v>130</v>
       </c>
       <c r="C46" s="5">
         <v>33802109</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="27" t="s">
         <v>131</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -3078,11 +3139,11 @@
       <c r="A47" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="15">
+      <c r="B47" s="31"/>
+      <c r="C47" s="14">
         <v>33803065</v>
       </c>
-      <c r="D47" s="32"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="6" t="s">
         <v>132</v>
       </c>
@@ -3100,11 +3161,11 @@
       <c r="A48" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="16">
+      <c r="B48" s="31"/>
+      <c r="C48" s="15">
         <v>33803066</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="6" t="s">
         <v>134</v>
       </c>
@@ -3122,11 +3183,11 @@
       <c r="A49" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="16">
+      <c r="B49" s="31"/>
+      <c r="C49" s="15">
         <v>33803083</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="6" t="s">
         <v>136</v>
       </c>
@@ -3144,11 +3205,11 @@
       <c r="A50" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="16">
+      <c r="B50" s="31"/>
+      <c r="C50" s="15">
         <v>33803069</v>
       </c>
-      <c r="D50" s="32"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="6" t="s">
         <v>138</v>
       </c>
@@ -3166,11 +3227,11 @@
       <c r="A51" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="16">
+      <c r="B51" s="31"/>
+      <c r="C51" s="15">
         <v>33803144</v>
       </c>
-      <c r="D51" s="32"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="6" t="s">
         <v>140</v>
       </c>
@@ -3188,11 +3249,11 @@
       <c r="A52" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="16">
+      <c r="B52" s="31"/>
+      <c r="C52" s="15">
         <v>33803174</v>
       </c>
-      <c r="D52" s="32"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="6" t="s">
         <v>142</v>
       </c>
@@ -3210,11 +3271,11 @@
       <c r="A53" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="16">
+      <c r="B53" s="31"/>
+      <c r="C53" s="15">
         <v>33803068</v>
       </c>
-      <c r="D53" s="32"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="6" t="s">
         <v>144</v>
       </c>
@@ -3232,11 +3293,11 @@
       <c r="A54" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="16">
+      <c r="B54" s="31"/>
+      <c r="C54" s="15">
         <v>33803071</v>
       </c>
-      <c r="D54" s="32"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="6" t="s">
         <v>146</v>
       </c>
@@ -3254,11 +3315,11 @@
       <c r="A55" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="16">
+      <c r="B55" s="31"/>
+      <c r="C55" s="15">
         <v>33803072</v>
       </c>
-      <c r="D55" s="32"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="6" t="s">
         <v>148</v>
       </c>
@@ -3276,11 +3337,11 @@
       <c r="A56" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="30"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="5">
         <v>33801793</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="6" t="s">
         <v>150</v>
       </c>
@@ -3298,11 +3359,11 @@
       <c r="A57" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="29"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="5">
         <v>33802671</v>
       </c>
-      <c r="D57" s="33"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="6" t="s">
         <v>152</v>
       </c>
@@ -3320,13 +3381,13 @@
       <c r="A58" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="31" t="s">
         <v>154</v>
       </c>
       <c r="C58" s="5">
         <v>36900882</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="27" t="s">
         <v>155</v>
       </c>
       <c r="E58" s="6" t="s">
@@ -3346,11 +3407,11 @@
       <c r="A59" t="s">
         <v>154</v>
       </c>
-      <c r="B59" s="30"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="5">
         <v>36900947</v>
       </c>
-      <c r="D59" s="32"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="6" t="s">
         <v>157</v>
       </c>
@@ -3368,11 +3429,11 @@
       <c r="A60" t="s">
         <v>154</v>
       </c>
-      <c r="B60" s="30"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="5">
         <v>36901615</v>
       </c>
-      <c r="D60" s="32"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="6" t="s">
         <v>159</v>
       </c>
@@ -3390,11 +3451,11 @@
       <c r="A61" t="s">
         <v>154</v>
       </c>
-      <c r="B61" s="30"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="5">
         <v>36900895</v>
       </c>
-      <c r="D61" s="32"/>
+      <c r="D61" s="28"/>
       <c r="E61" s="6" t="s">
         <v>161</v>
       </c>
@@ -3412,11 +3473,11 @@
       <c r="A62" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="30"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="5">
         <v>36900894</v>
       </c>
-      <c r="D62" s="32"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="6" t="s">
         <v>163</v>
       </c>
@@ -3434,11 +3495,11 @@
       <c r="A63" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="30"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="5">
         <v>36901645</v>
       </c>
-      <c r="D63" s="32"/>
+      <c r="D63" s="28"/>
       <c r="E63" s="6" t="s">
         <v>165</v>
       </c>
@@ -3456,11 +3517,11 @@
       <c r="A64" t="s">
         <v>154</v>
       </c>
-      <c r="B64" s="30"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="13">
         <v>36900941</v>
       </c>
-      <c r="D64" s="32"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="6" t="s">
         <v>167</v>
       </c>
@@ -3478,11 +3539,11 @@
       <c r="A65" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="30"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="5">
         <v>36901644</v>
       </c>
-      <c r="D65" s="32"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="6" t="s">
         <v>169</v>
       </c>
@@ -3500,11 +3561,11 @@
       <c r="A66" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="30"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="11">
         <v>36900730</v>
       </c>
-      <c r="D66" s="32"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="6" t="s">
         <v>171</v>
       </c>
@@ -3522,11 +3583,11 @@
       <c r="A67" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="30"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="5">
         <v>36900729</v>
       </c>
-      <c r="D67" s="32"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="6" t="s">
         <v>173</v>
       </c>
@@ -3548,11 +3609,11 @@
       <c r="C68" s="5">
         <v>36901045</v>
       </c>
-      <c r="D68" s="32"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="53" t="s">
         <v>175</v>
       </c>
       <c r="G68" s="8"/>
@@ -3568,11 +3629,11 @@
       <c r="C69" s="5">
         <v>36901044</v>
       </c>
-      <c r="D69" s="33"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="53" t="s">
         <v>175</v>
       </c>
       <c r="G69" s="8"/>
@@ -3584,11 +3645,11 @@
       <c r="A70" t="s">
         <v>177</v>
       </c>
-      <c r="B70" s="30"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="5">
         <v>34005342</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="27" t="s">
         <v>177</v>
       </c>
       <c r="E70" s="6" t="s">
@@ -3608,11 +3669,11 @@
       <c r="A71" t="s">
         <v>177</v>
       </c>
-      <c r="B71" s="30"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="12">
         <v>34004869</v>
       </c>
-      <c r="D71" s="32"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="6" t="s">
         <v>180</v>
       </c>
@@ -3630,11 +3691,11 @@
       <c r="A72" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="30"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="12">
         <v>34004862</v>
       </c>
-      <c r="D72" s="32"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="6" t="s">
         <v>182</v>
       </c>
@@ -3652,11 +3713,11 @@
       <c r="A73" t="s">
         <v>177</v>
       </c>
-      <c r="B73" s="30"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="5">
         <v>34901397</v>
       </c>
-      <c r="D73" s="32"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="6" t="s">
         <v>184</v>
       </c>
@@ -3674,11 +3735,11 @@
       <c r="A74" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="30"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="5">
         <v>34004163</v>
       </c>
-      <c r="D74" s="32"/>
+      <c r="D74" s="28"/>
       <c r="E74" s="6" t="s">
         <v>186</v>
       </c>
@@ -3696,11 +3757,11 @@
       <c r="A75" t="s">
         <v>177</v>
       </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="17">
+      <c r="B75" s="32"/>
+      <c r="C75" s="16">
         <v>34004951</v>
       </c>
-      <c r="D75" s="33"/>
+      <c r="D75" s="29"/>
       <c r="E75" s="6" t="s">
         <v>188</v>
       </c>
@@ -3718,19 +3779,19 @@
       <c r="A76" t="s">
         <v>190</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="41">
         <v>37000523</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="37" t="s">
         <v>193</v>
       </c>
       <c r="G76" s="8">
@@ -3744,15 +3805,15 @@
       <c r="A77" t="s">
         <v>190</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="5">
+      <c r="B77" s="38"/>
+      <c r="C77" s="41">
         <v>37000524</v>
       </c>
-      <c r="D77" s="32"/>
-      <c r="E77" s="6" t="s">
+      <c r="D77" s="44"/>
+      <c r="E77" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="37" t="s">
         <v>195</v>
       </c>
       <c r="G77" s="8">
@@ -3766,15 +3827,15 @@
       <c r="A78" t="s">
         <v>190</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="5">
+      <c r="B78" s="38"/>
+      <c r="C78" s="41">
         <v>37000525</v>
       </c>
-      <c r="D78" s="32"/>
-      <c r="E78" s="6" t="s">
+      <c r="D78" s="44"/>
+      <c r="E78" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="37" t="s">
         <v>197</v>
       </c>
       <c r="G78" s="8">
@@ -3788,15 +3849,15 @@
       <c r="A79" t="s">
         <v>190</v>
       </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="5">
+      <c r="B79" s="38"/>
+      <c r="C79" s="41">
         <v>37001471</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="6" t="s">
+      <c r="D79" s="44"/>
+      <c r="E79" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="37" t="s">
         <v>199</v>
       </c>
       <c r="G79" s="8">
@@ -3810,15 +3871,15 @@
       <c r="A80" t="s">
         <v>190</v>
       </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="5">
+      <c r="B80" s="38"/>
+      <c r="C80" s="41">
         <v>37001472</v>
       </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="6" t="s">
+      <c r="D80" s="44"/>
+      <c r="E80" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="37" t="s">
         <v>201</v>
       </c>
       <c r="G80" s="8">
@@ -3832,15 +3893,15 @@
       <c r="A81" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="30"/>
-      <c r="C81" s="5">
+      <c r="B81" s="38"/>
+      <c r="C81" s="41">
         <v>37001473</v>
       </c>
-      <c r="D81" s="32"/>
-      <c r="E81" s="6" t="s">
+      <c r="D81" s="44"/>
+      <c r="E81" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="37" t="s">
         <v>203</v>
       </c>
       <c r="G81" s="8">
@@ -3854,15 +3915,15 @@
       <c r="A82" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="5">
+      <c r="B82" s="38"/>
+      <c r="C82" s="41">
         <v>37000389</v>
       </c>
-      <c r="D82" s="32"/>
-      <c r="E82" s="6" t="s">
+      <c r="D82" s="44"/>
+      <c r="E82" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="37" t="s">
         <v>205</v>
       </c>
       <c r="G82" s="8">
@@ -3876,15 +3937,15 @@
       <c r="A83" t="s">
         <v>190</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="5">
+      <c r="B83" s="38"/>
+      <c r="C83" s="41">
         <v>37001369</v>
       </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="6" t="s">
+      <c r="D83" s="44"/>
+      <c r="E83" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G83" s="8">
@@ -3898,15 +3959,15 @@
       <c r="A84" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="29"/>
-      <c r="C84" s="5">
+      <c r="B84" s="43"/>
+      <c r="C84" s="41">
         <v>37001523</v>
       </c>
-      <c r="D84" s="33"/>
-      <c r="E84" s="6" t="s">
+      <c r="D84" s="49"/>
+      <c r="E84" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="37" t="s">
         <v>209</v>
       </c>
       <c r="G84" s="8">
@@ -3920,19 +3981,19 @@
       <c r="A85" t="s">
         <v>210</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="41">
         <v>38000190</v>
       </c>
-      <c r="D85" s="31" t="s">
+      <c r="D85" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="37" t="s">
         <v>214</v>
       </c>
       <c r="G85" s="8">
@@ -3946,15 +4007,15 @@
       <c r="A86" t="s">
         <v>210</v>
       </c>
-      <c r="B86" s="30"/>
-      <c r="C86" s="5">
+      <c r="B86" s="38"/>
+      <c r="C86" s="41">
         <v>38000264</v>
       </c>
-      <c r="D86" s="32"/>
-      <c r="E86" s="6" t="s">
+      <c r="D86" s="44"/>
+      <c r="E86" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="37" t="s">
         <v>216</v>
       </c>
       <c r="G86" s="8">
@@ -3968,15 +4029,15 @@
       <c r="A87" t="s">
         <v>210</v>
       </c>
-      <c r="B87" s="30"/>
-      <c r="C87" s="5">
+      <c r="B87" s="38"/>
+      <c r="C87" s="41">
         <v>38000193</v>
       </c>
-      <c r="D87" s="32"/>
-      <c r="E87" s="6" t="s">
+      <c r="D87" s="44"/>
+      <c r="E87" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="37" t="s">
         <v>216</v>
       </c>
       <c r="G87" s="8">
@@ -3990,15 +4051,15 @@
       <c r="A88" t="s">
         <v>210</v>
       </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="5">
+      <c r="B88" s="38"/>
+      <c r="C88" s="41">
         <v>38000256</v>
       </c>
-      <c r="D88" s="32"/>
-      <c r="E88" s="6" t="s">
+      <c r="D88" s="44"/>
+      <c r="E88" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="37" t="s">
         <v>219</v>
       </c>
       <c r="G88" s="8">
@@ -4012,15 +4073,15 @@
       <c r="A89" t="s">
         <v>210</v>
       </c>
-      <c r="B89" s="30"/>
-      <c r="C89" s="5">
+      <c r="B89" s="38"/>
+      <c r="C89" s="41">
         <v>38000245</v>
       </c>
-      <c r="D89" s="32"/>
-      <c r="E89" s="6" t="s">
+      <c r="D89" s="44"/>
+      <c r="E89" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="37" t="s">
         <v>221</v>
       </c>
       <c r="G89" s="8">
@@ -4034,15 +4095,15 @@
       <c r="A90" t="s">
         <v>210</v>
       </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="5">
+      <c r="B90" s="38"/>
+      <c r="C90" s="41">
         <v>38000250</v>
       </c>
-      <c r="D90" s="32"/>
-      <c r="E90" s="6" t="s">
+      <c r="D90" s="44"/>
+      <c r="E90" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="37" t="s">
         <v>223</v>
       </c>
       <c r="G90" s="8">
@@ -4056,15 +4117,15 @@
       <c r="A91" t="s">
         <v>210</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="5">
+      <c r="B91" s="38"/>
+      <c r="C91" s="41">
         <v>38000976</v>
       </c>
-      <c r="D91" s="32"/>
-      <c r="E91" s="6" t="s">
+      <c r="D91" s="44"/>
+      <c r="E91" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="37" t="s">
         <v>225</v>
       </c>
       <c r="G91" s="8">
@@ -4078,15 +4139,15 @@
       <c r="A92" t="s">
         <v>210</v>
       </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="5">
+      <c r="B92" s="38"/>
+      <c r="C92" s="41">
         <v>38000974</v>
       </c>
-      <c r="D92" s="32"/>
-      <c r="E92" s="6" t="s">
+      <c r="D92" s="44"/>
+      <c r="E92" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="37" t="s">
         <v>227</v>
       </c>
       <c r="G92" s="8">
@@ -4100,15 +4161,15 @@
       <c r="A93" t="s">
         <v>210</v>
       </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="5">
+      <c r="B93" s="43"/>
+      <c r="C93" s="41">
         <v>38000906</v>
       </c>
-      <c r="D93" s="33"/>
-      <c r="E93" s="6" t="s">
+      <c r="D93" s="49"/>
+      <c r="E93" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="37" t="s">
         <v>229</v>
       </c>
       <c r="G93" s="8">
@@ -4122,13 +4183,13 @@
       <c r="A94" t="s">
         <v>230</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="B94" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="17">
         <v>38900021</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="27" t="s">
         <v>230</v>
       </c>
       <c r="E94" s="6" t="s">
@@ -4148,11 +4209,11 @@
       <c r="A95" t="s">
         <v>230</v>
       </c>
-      <c r="B95" s="30"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="5">
         <v>38900033</v>
       </c>
-      <c r="D95" s="32"/>
+      <c r="D95" s="28"/>
       <c r="E95" s="6" t="s">
         <v>234</v>
       </c>
@@ -4170,11 +4231,11 @@
       <c r="A96" t="s">
         <v>230</v>
       </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="19">
+      <c r="B96" s="31"/>
+      <c r="C96" s="18">
         <v>38900046</v>
       </c>
-      <c r="D96" s="32"/>
+      <c r="D96" s="28"/>
       <c r="E96" s="6" t="s">
         <v>236</v>
       </c>
@@ -4192,11 +4253,11 @@
       <c r="A97" t="s">
         <v>230</v>
       </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="19">
+      <c r="B97" s="32"/>
+      <c r="C97" s="18">
         <v>38900049</v>
       </c>
-      <c r="D97" s="33"/>
+      <c r="D97" s="29"/>
       <c r="E97" s="6" t="s">
         <v>238</v>
       </c>
@@ -4214,13 +4275,13 @@
       <c r="A98" t="s">
         <v>240</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="30" t="s">
         <v>240</v>
       </c>
       <c r="C98" s="5">
         <v>33300606</v>
       </c>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="27" t="s">
         <v>241</v>
       </c>
       <c r="E98" s="6" t="s">
@@ -4240,11 +4301,11 @@
       <c r="A99" t="s">
         <v>240</v>
       </c>
-      <c r="B99" s="29"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="5">
         <v>33300605</v>
       </c>
-      <c r="D99" s="32"/>
+      <c r="D99" s="28"/>
       <c r="E99" s="6" t="s">
         <v>244</v>
       </c>
@@ -4262,13 +4323,13 @@
       <c r="A100" t="s">
         <v>246</v>
       </c>
-      <c r="B100" s="28" t="s">
+      <c r="B100" s="30" t="s">
         <v>246</v>
       </c>
       <c r="C100" s="5">
         <v>39001536</v>
       </c>
-      <c r="D100" s="32"/>
+      <c r="D100" s="28"/>
       <c r="E100" s="6" t="s">
         <v>247</v>
       </c>
@@ -4286,11 +4347,11 @@
       <c r="A101" t="s">
         <v>246</v>
       </c>
-      <c r="B101" s="30"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="5">
         <v>39001005</v>
       </c>
-      <c r="D101" s="32"/>
+      <c r="D101" s="28"/>
       <c r="E101" s="6" t="s">
         <v>249</v>
       </c>
@@ -4308,11 +4369,11 @@
       <c r="A102" t="s">
         <v>246</v>
       </c>
-      <c r="B102" s="30"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="5">
         <v>39001006</v>
       </c>
-      <c r="D102" s="32"/>
+      <c r="D102" s="28"/>
       <c r="E102" s="6" t="s">
         <v>251</v>
       </c>
@@ -4330,11 +4391,11 @@
       <c r="A103" t="s">
         <v>246</v>
       </c>
-      <c r="B103" s="30"/>
+      <c r="B103" s="31"/>
       <c r="C103" s="11">
         <v>39000806</v>
       </c>
-      <c r="D103" s="32"/>
+      <c r="D103" s="28"/>
       <c r="E103" s="6" t="s">
         <v>253</v>
       </c>
@@ -4352,11 +4413,11 @@
       <c r="A104" t="s">
         <v>246</v>
       </c>
-      <c r="B104" s="30"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="5">
         <v>39300768</v>
       </c>
-      <c r="D104" s="32"/>
+      <c r="D104" s="28"/>
       <c r="E104" s="6" t="s">
         <v>255</v>
       </c>
@@ -4374,11 +4435,11 @@
       <c r="A105" t="s">
         <v>246</v>
       </c>
-      <c r="B105" s="30"/>
+      <c r="B105" s="31"/>
       <c r="C105" s="5">
         <v>39300767</v>
       </c>
-      <c r="D105" s="32"/>
+      <c r="D105" s="28"/>
       <c r="E105" s="6" t="s">
         <v>257</v>
       </c>
@@ -4396,11 +4457,11 @@
       <c r="A106" t="s">
         <v>246</v>
       </c>
-      <c r="B106" s="30"/>
+      <c r="B106" s="31"/>
       <c r="C106" s="5">
         <v>39600166</v>
       </c>
-      <c r="D106" s="32"/>
+      <c r="D106" s="28"/>
       <c r="E106" s="6" t="s">
         <v>259</v>
       </c>
@@ -4418,11 +4479,11 @@
       <c r="A107" t="s">
         <v>246</v>
       </c>
-      <c r="B107" s="30"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="5">
         <v>39600169</v>
       </c>
-      <c r="D107" s="32"/>
+      <c r="D107" s="28"/>
       <c r="E107" s="6" t="s">
         <v>261</v>
       </c>
@@ -4440,11 +4501,11 @@
       <c r="A108" t="s">
         <v>246</v>
       </c>
-      <c r="B108" s="30"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="5">
         <v>39300762</v>
       </c>
-      <c r="D108" s="32"/>
+      <c r="D108" s="28"/>
       <c r="E108" s="6" t="s">
         <v>263</v>
       </c>
@@ -4462,11 +4523,11 @@
       <c r="A109" t="s">
         <v>246</v>
       </c>
-      <c r="B109" s="30"/>
+      <c r="B109" s="31"/>
       <c r="C109" s="5">
         <v>39400923</v>
       </c>
-      <c r="D109" s="32"/>
+      <c r="D109" s="28"/>
       <c r="E109" s="6" t="s">
         <v>265</v>
       </c>
@@ -4484,11 +4545,11 @@
       <c r="A110" t="s">
         <v>246</v>
       </c>
-      <c r="B110" s="30"/>
+      <c r="B110" s="31"/>
       <c r="C110" s="5">
         <v>39400928</v>
       </c>
-      <c r="D110" s="32"/>
+      <c r="D110" s="28"/>
       <c r="E110" s="6" t="s">
         <v>267</v>
       </c>
@@ -4506,11 +4567,11 @@
       <c r="A111" t="s">
         <v>246</v>
       </c>
-      <c r="B111" s="29"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="5">
         <v>39500050</v>
       </c>
-      <c r="D111" s="33"/>
+      <c r="D111" s="29"/>
       <c r="E111" s="6" t="s">
         <v>268</v>
       </c>
@@ -4526,11 +4587,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="D76:D84"/>
-    <mergeCell ref="D98:D111"/>
-    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B111"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="B85:B93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="D58:D69"/>
+    <mergeCell ref="D46:D57"/>
+    <mergeCell ref="B46:B57"/>
+    <mergeCell ref="B58:B67"/>
+    <mergeCell ref="B70:B75"/>
     <mergeCell ref="B36:B45"/>
     <mergeCell ref="B4:B16"/>
     <mergeCell ref="D4:D16"/>
@@ -4543,16 +4609,11 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D45"/>
-    <mergeCell ref="D58:D69"/>
-    <mergeCell ref="D46:D57"/>
-    <mergeCell ref="B46:B57"/>
-    <mergeCell ref="B58:B67"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B111"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="B85:B93"/>
-    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="D76:D84"/>
+    <mergeCell ref="D98:D111"/>
+    <mergeCell ref="D70:D75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
